--- a/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="308">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1258,6 +1258,52 @@
   </si>
   <si>
     <t>修正表情对应商城配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传弓手表情包奖励资源图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Atlases\ActorPrize\Type_16\Icon_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemMessage.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendPrize.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广奖励配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectArrayTip.csv</t>
+  </si>
+  <si>
+    <t>配合程序修正阵容显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebUrl.csv</t>
+  </si>
+  <si>
+    <t>修改错误提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内置网页配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingWarTip.csv；ConsumptionGuideConfig.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1713,12 +1759,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q264"/>
+  <dimension ref="A1:Q272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane ySplit="4620" topLeftCell="A260" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
+      <selection pane="bottomLeft" activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6544,13 +6590,175 @@
         <v>董哲宇【全版本】[内部知晓]:修正表情对应商城配置。(修改文件:ChatEmotion.csv)</v>
       </c>
     </row>
+    <row r="266" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A266" s="6">
+        <v>43085</v>
+      </c>
+      <c r="B266" s="9">
+        <v>1</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H266" s="8" t="str">
+        <f t="shared" ref="H266" si="88">CONCATENATE(F266,"","【",E266,"】[",G266,"]:",C266,"。(修改文件:",D266,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:上传弓手表情包奖励资源图。(修改文件:\Atlases\ActorPrize\Type_16\Icon_1.png)</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A268" s="6">
+        <v>43090</v>
+      </c>
+      <c r="B268" s="9">
+        <v>1</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H268" s="8" t="str">
+        <f t="shared" ref="H268:H269" si="89">CONCATENATE(F268,"","【",E268,"】[",G268,"]:",C268,"。(修改文件:",D268,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改描述。(修改文件:SystemMessage.csv)</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A269" s="6">
+        <v>43090</v>
+      </c>
+      <c r="B269" s="9">
+        <v>2</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H269" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>董哲宇【全版本】[内部知晓]:推广奖励配置。(修改文件:RecommendPrize.csv)</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A270" s="6">
+        <v>43090</v>
+      </c>
+      <c r="B270" s="9">
+        <v>3</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H270" s="8" t="str">
+        <f t="shared" ref="H270:H272" si="90">CONCATENATE(F270,"","【",E270,"】[",G270,"]:",C270,"。(修改文件:",D270,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:配合程序修正阵容显示。(修改文件:SelectArrayTip.csv)</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A271" s="6">
+        <v>43090</v>
+      </c>
+      <c r="B271" s="9">
+        <v>4</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H271" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v>董哲宇【全版本】[内部知晓]:修改内置网页配置。(修改文件:WebUrl.csv)</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A272" s="6">
+        <v>43090</v>
+      </c>
+      <c r="B272" s="9">
+        <v>5</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H272" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v>董哲宇【全版本】[内部知晓]:修改错误提示。(修改文件:LoadingWarTip.csv；ConsumptionGuideConfig.csv)</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272">
       <formula1>$O$2:$O$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">

--- a/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="19200" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="19200" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="332">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -277,9 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PersonModel.csv</t>
-  </si>
-  <si>
     <t>修改任务脚本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +330,6 @@
   </si>
   <si>
     <t>商城增加皮肤出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointShopGoods.csv;ActorPrize.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1304,6 +1297,108 @@
   </si>
   <si>
     <t>LoadingWarTip.csv；ConsumptionGuideConfig.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改赛季配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商城价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchemeMatchSeasonTime.csv</t>
+  </si>
+  <si>
+    <t>修改联盟邀请提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemMessage.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebUrl.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置网页配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendCupLimit.csv</t>
+  </si>
+  <si>
+    <t>上传客户端脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广描述修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocialSharing.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改推广描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改聊天cd和等级控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonModel.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointShopGoods.csv;ActorPrize.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改英雄解锁配置和英雄购买价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroType.csv；PersonModel.csv；PointShopGoods.csv；PrizeUnlock.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代传有红提示修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置网页登录链接修改、推广修改（柴智）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯赛描述修改（粟琼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯赛结算时间修改（粟琼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendCupDetail.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendCupDetail.csv；WarForceEnd.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改比赛强制结束时间、杯赛再次修改结算时间（粟琼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendCupTipConfig.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯赛提示修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1759,12 +1854,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q272"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane ySplit="4620" topLeftCell="A260" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D272" sqref="D272"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <pane ySplit="4620" topLeftCell="A275"/>
+      <selection activeCell="H53" sqref="H53"/>
+      <selection pane="bottomLeft" activeCell="H289" sqref="H289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2343,7 +2438,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -2379,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -2406,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -2445,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -2483,10 +2578,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -2522,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -2558,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -2596,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>38</v>
@@ -2623,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -2659,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -2686,10 +2781,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -2725,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>32</v>
@@ -2752,10 +2847,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -2787,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -2814,10 +2909,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -2841,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -2877,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -2913,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -2940,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
@@ -2967,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -2994,10 +3089,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -3021,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
@@ -3048,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
@@ -3075,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
@@ -3102,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -3129,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -3156,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -3183,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
@@ -3210,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
@@ -3237,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -3264,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -3291,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -3318,10 +3413,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
@@ -3345,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
@@ -3372,10 +3467,10 @@
         <v>2</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>14</v>
@@ -3399,10 +3494,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
@@ -3426,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>14</v>
@@ -3453,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>14</v>
@@ -3480,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>14</v>
@@ -3507,10 +3602,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>14</v>
@@ -3534,10 +3629,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>14</v>
@@ -3561,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>32</v>
@@ -3588,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>14</v>
@@ -3615,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>14</v>
@@ -3642,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>14</v>
@@ -3669,10 +3764,10 @@
         <v>4</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>14</v>
@@ -3696,10 +3791,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>14</v>
@@ -3723,10 +3818,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>14</v>
@@ -3750,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>14</v>
@@ -3777,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>14</v>
@@ -3804,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>14</v>
@@ -3831,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>14</v>
@@ -3858,10 +3953,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>14</v>
@@ -3885,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>14</v>
@@ -3912,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>14</v>
@@ -3939,10 +4034,10 @@
         <v>2</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>14</v>
@@ -3973,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>14</v>
@@ -4000,10 +4095,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>14</v>
@@ -4027,10 +4122,10 @@
         <v>2</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>14</v>
@@ -4054,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>14</v>
@@ -4081,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>14</v>
@@ -4108,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>14</v>
@@ -4135,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>14</v>
@@ -4162,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>14</v>
@@ -4189,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>14</v>
@@ -4216,10 +4311,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>14</v>
@@ -4243,10 +4338,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>14</v>
@@ -4270,10 +4365,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>14</v>
@@ -4297,10 +4392,10 @@
         <v>2</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>14</v>
@@ -4324,10 +4419,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>14</v>
@@ -4351,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>32</v>
@@ -4378,10 +4473,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>14</v>
@@ -4405,7 +4500,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>32</v>
@@ -4432,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>32</v>
@@ -4459,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>14</v>
@@ -4486,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D149" s="11" t="s">
         <v>32</v>
@@ -4513,10 +4608,10 @@
         <v>2</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>14</v>
@@ -4543,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>14</v>
@@ -4570,10 +4665,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>14</v>
@@ -4597,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>14</v>
@@ -4624,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>14</v>
@@ -4651,10 +4746,10 @@
         <v>2</v>
       </c>
       <c r="C157" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>14</v>
@@ -4678,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>32</v>
@@ -4705,10 +4800,10 @@
         <v>2</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>14</v>
@@ -4732,10 +4827,10 @@
         <v>3</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>14</v>
@@ -4759,10 +4854,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>14</v>
@@ -4786,10 +4881,10 @@
         <v>2</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>14</v>
@@ -4813,10 +4908,10 @@
         <v>3</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>14</v>
@@ -4840,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>14</v>
@@ -4867,10 +4962,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>14</v>
@@ -4894,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -4921,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>32</v>
@@ -4948,10 +5043,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>14</v>
@@ -4975,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>14</v>
@@ -5002,10 +5097,10 @@
         <v>2</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>14</v>
@@ -5029,10 +5124,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>14</v>
@@ -5056,10 +5151,10 @@
         <v>2</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>14</v>
@@ -5083,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>32</v>
@@ -5110,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>32</v>
@@ -5137,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>14</v>
@@ -5164,10 +5259,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>14</v>
@@ -5191,10 +5286,10 @@
         <v>2</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>14</v>
@@ -5218,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>14</v>
@@ -5245,10 +5340,10 @@
         <v>2</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>14</v>
@@ -5272,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>14</v>
@@ -5299,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>32</v>
@@ -5326,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>14</v>
@@ -5353,10 +5448,10 @@
         <v>2</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>14</v>
@@ -5380,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>14</v>
@@ -5407,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>14</v>
@@ -5434,10 +5529,10 @@
         <v>2</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>14</v>
@@ -5461,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>14</v>
@@ -5488,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>32</v>
@@ -5515,10 +5610,10 @@
         <v>1</v>
       </c>
       <c r="C201" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D201" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>14</v>
@@ -5542,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D203" s="11" t="s">
         <v>18</v>
@@ -5569,16 +5664,16 @@
         <v>1</v>
       </c>
       <c r="C205" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="G205" s="9" t="s">
         <v>10</v>
@@ -5596,10 +5691,10 @@
         <v>2</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>14</v>
@@ -5623,10 +5718,10 @@
         <v>3</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>14</v>
@@ -5650,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>14</v>
@@ -5677,10 +5772,10 @@
         <v>2</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>14</v>
@@ -5704,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>14</v>
@@ -5731,10 +5826,10 @@
         <v>1</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>14</v>
@@ -5758,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>14</v>
@@ -5785,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>14</v>
@@ -5812,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>32</v>
@@ -5839,10 +5934,10 @@
         <v>2</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>14</v>
@@ -5866,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>14</v>
@@ -5893,10 +5988,10 @@
         <v>2</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>14</v>
@@ -5920,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>14</v>
@@ -5947,10 +6042,10 @@
         <v>4</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>14</v>
@@ -5974,10 +6069,10 @@
         <v>1</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>14</v>
@@ -6001,10 +6096,10 @@
         <v>2</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>14</v>
@@ -6028,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="C231" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D231" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>14</v>
@@ -6055,10 +6150,10 @@
         <v>2</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>14</v>
@@ -6082,10 +6177,10 @@
         <v>1</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>14</v>
@@ -6109,10 +6204,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>14</v>
@@ -6136,10 +6231,10 @@
         <v>1</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>14</v>
@@ -6163,10 +6258,10 @@
         <v>1</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>14</v>
@@ -6190,10 +6285,10 @@
         <v>1</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>14</v>
@@ -6217,10 +6312,10 @@
         <v>1</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>14</v>
@@ -6244,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>14</v>
@@ -6271,10 +6366,10 @@
         <v>2</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>14</v>
@@ -6298,10 +6393,10 @@
         <v>1</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>14</v>
@@ -6325,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>14</v>
@@ -6355,10 +6450,10 @@
         <v>1</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>14</v>
@@ -6382,10 +6477,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>14</v>
@@ -6409,10 +6504,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>14</v>
@@ -6436,10 +6531,10 @@
         <v>2</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>14</v>
@@ -6463,10 +6558,10 @@
         <v>3</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>14</v>
@@ -6490,10 +6585,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>14</v>
@@ -6517,10 +6612,10 @@
         <v>2</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>14</v>
@@ -6544,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>14</v>
@@ -6571,10 +6666,10 @@
         <v>4</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>14</v>
@@ -6598,10 +6693,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>14</v>
@@ -6617,7 +6712,7 @@
         <v>董哲宇【全版本】[内部知晓]:上传弓手表情包奖励资源图。(修改文件:\Atlases\ActorPrize\Type_16\Icon_1.png)</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>43090</v>
       </c>
@@ -6625,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>14</v>
@@ -6652,10 +6747,10 @@
         <v>2</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>14</v>
@@ -6679,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>14</v>
@@ -6706,10 +6801,10 @@
         <v>4</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>14</v>
@@ -6725,7 +6820,7 @@
         <v>董哲宇【全版本】[内部知晓]:修改内置网页配置。(修改文件:WebUrl.csv)</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>43090</v>
       </c>
@@ -6733,10 +6828,10 @@
         <v>5</v>
       </c>
       <c r="C272" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D272" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D272" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>14</v>
@@ -6752,13 +6847,419 @@
         <v>董哲宇【全版本】[内部知晓]:修改错误提示。(修改文件:LoadingWarTip.csv；ConsumptionGuideConfig.csv)</v>
       </c>
     </row>
+    <row r="273" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B274" s="9">
+        <v>1</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G274" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H274" s="8" t="str">
+        <f t="shared" ref="H274:H279" si="91">CONCATENATE(F274,"","【",E274,"】[",G274,"]:",C274,"。(修改文件:",D274,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改赛季配置。(修改文件:SchemeMatchSeasonTime.csv)</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B275" s="9">
+        <v>2</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H275" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v>董哲宇【全版本】[内部知晓]:修改联盟邀请提示。(修改文件:SystemMessage.csv)</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B276" s="9">
+        <v>3</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H276" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v>董哲宇【全版本】[内部知晓]:修改商城价格。(修改文件:PointShopGoods.csv)</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B277" s="9">
+        <v>4</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H277" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v>董哲宇【全版本】[内部知晓]:内置网页配置。(修改文件:WebUrl.csv)</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B278" s="9">
+        <v>5</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H278" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v>董哲宇【全版本】[内部知晓]:上传客户端脚本。(修改文件:LegendCupLimit.csv)</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B279" s="9">
+        <v>6</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H279" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v>董哲宇【全版本】[内部知晓]:推广描述修改。(修改文件:UIView.csv)</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A280" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B280" s="9">
+        <v>7</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H280" s="8" t="str">
+        <f t="shared" ref="H280" si="92">CONCATENATE(F280,"","【",E280,"】[",G280,"]:",C280,"。(修改文件:",D280,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改推广描述。(修改文件:SocialSharing.csv)</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A281" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B281" s="9">
+        <v>8</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D281" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H281" s="8" t="str">
+        <f t="shared" ref="H281" si="93">CONCATENATE(F281,"","【",E281,"】[",G281,"]:",C281,"。(修改文件:",D281,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改聊天cd和等级控制。(修改文件:ChatCD.csv)</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A283" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B283" s="9">
+        <v>1</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G283" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H283" s="8" t="str">
+        <f t="shared" ref="H283" si="94">CONCATENATE(F283,"","【",E283,"】[",G283,"]:",C283,"。(修改文件:",D283,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改英雄解锁配置和英雄购买价格。(修改文件:HeroType.csv；PersonModel.csv；PointShopGoods.csv；PrizeUnlock.csv)</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A284" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B284" s="9">
+        <v>2</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H284" s="8" t="str">
+        <f t="shared" ref="H284" si="95">CONCATENATE(F284,"","【",E284,"】[",G284,"]:",C284,"。(修改文件:",D284,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:代传有红提示修改。(修改文件:SystemMessage.csv)</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A285" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B285" s="9">
+        <v>3</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H285" s="8" t="str">
+        <f t="shared" ref="H285" si="96">CONCATENATE(F285,"","【",E285,"】[",G285,"]:",C285,"。(修改文件:",D285,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:内置网页登录链接修改、推广修改（柴智）。(修改文件:WebUrl.csv)</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A286" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B286" s="9">
+        <v>4</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H286" s="8" t="str">
+        <f t="shared" ref="H286" si="97">CONCATENATE(F286,"","【",E286,"】[",G286,"]:",C286,"。(修改文件:",D286,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:杯赛描述修改（粟琼）。(修改文件:UIView.csv)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A287" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B287" s="9">
+        <v>5</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H287" s="8" t="str">
+        <f t="shared" ref="H287" si="98">CONCATENATE(F287,"","【",E287,"】[",G287,"]:",C287,"。(修改文件:",D287,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:杯赛结算时间修改（粟琼）。(修改文件:LegendCupDetail.csv)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A288" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B288" s="9">
+        <v>6</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H288" s="8" t="str">
+        <f t="shared" ref="H288" si="99">CONCATENATE(F288,"","【",E288,"】[",G288,"]:",C288,"。(修改文件:",D288,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改比赛强制结束时间、杯赛再次修改结算时间（粟琼）。(修改文件:LegendCupDetail.csv；WarForceEnd.csv)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A289" s="6">
+        <v>43096</v>
+      </c>
+      <c r="B289" s="9">
+        <v>7</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H289" s="8" t="str">
+        <f t="shared" ref="H289" si="100">CONCATENATE(F289,"","【",E289,"】[",G289,"]:",C289,"。(修改文件:",D289,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:杯赛提示修改。(修改文件:LegendCupTipConfig.csv)</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272 G274:G281 G283:G289">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272 E274:E281 E283:E289">
       <formula1>$O$2:$O$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">

--- a/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="335">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1399,6 +1399,18 @@
   </si>
   <si>
     <t>杯赛提示修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改充值描述（柴智）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改杯赛历史记录、杯赛结束描述，赛制描述（粟琼、徐安来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改限定皮肤的提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1854,12 +1866,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q289"/>
+  <dimension ref="A1:Q293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <pane ySplit="4620" topLeftCell="A275"/>
-      <selection activeCell="H53" sqref="H53"/>
-      <selection pane="bottomLeft" activeCell="H289" sqref="H289"/>
+      <pane ySplit="4620" topLeftCell="A281" activePane="bottomLeft"/>
+      <selection activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7226,7 +7238,7 @@
         <v>董哲宇【全版本】[内部知晓]:修改比赛强制结束时间、杯赛再次修改结算时间（粟琼）。(修改文件:LegendCupDetail.csv；WarForceEnd.csv)</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>43096</v>
       </c>
@@ -7253,13 +7265,94 @@
         <v>董哲宇【全版本】[内部知晓]:杯赛提示修改。(修改文件:LegendCupTipConfig.csv)</v>
       </c>
     </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A291" s="6">
+        <v>43097</v>
+      </c>
+      <c r="B291" s="9">
+        <v>1</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G291" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H291" s="8" t="str">
+        <f t="shared" ref="H291:H292" si="101">CONCATENATE(F291,"","【",E291,"】[",G291,"]:",C291,"。(修改文件:",D291,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改充值描述（柴智）。(修改文件:UIView.csv)</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A292" s="6">
+        <v>43097</v>
+      </c>
+      <c r="B292" s="9">
+        <v>2</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H292" s="8" t="str">
+        <f t="shared" si="101"/>
+        <v>董哲宇【全版本】[内部知晓]:修改杯赛历史记录、杯赛结束描述，赛制描述（粟琼、徐安来）。(修改文件:UIView.csv)</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="6">
+        <v>43097</v>
+      </c>
+      <c r="B293" s="9">
+        <v>3</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H293" s="8" t="str">
+        <f t="shared" ref="H293" si="102">CONCATENATE(F293,"","【",E293,"】[",G293,"]:",C293,"。(修改文件:",D293,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:修改限定皮肤的提示。(修改文件:SystemMessage.csv)</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272 G274:G281 G283:G289">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272 G274:G281 G283:G289 G291:G293">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272 E274:E281 E283:E289">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272 E274:E281 E283:E289 E291:E293">
       <formula1>$O$2:$O$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">

--- a/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_董哲宇.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="340">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1411,6 +1411,26 @@
   </si>
   <si>
     <t>修改限定皮肤的提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendCupTipConfig.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯赛说明增加小组赛算分文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticState_102.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传3v3创建房间新的地图图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台踢人显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,12 +1886,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q293"/>
+  <dimension ref="A1:Q296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <pane ySplit="4620" topLeftCell="A281" activePane="bottomLeft"/>
-      <selection activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="C293" sqref="C293"/>
+      <selection activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7292,7 +7312,7 @@
         <v>董哲宇【全版本】[内部知晓]:修改充值描述（柴智）。(修改文件:UIView.csv)</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <v>43097</v>
       </c>
@@ -7346,13 +7366,94 @@
         <v>董哲宇【全版本】[内部知晓]:修改限定皮肤的提示。(修改文件:SystemMessage.csv)</v>
       </c>
     </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A294" s="6">
+        <v>43097</v>
+      </c>
+      <c r="B294" s="9">
+        <v>4</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H294" s="8" t="str">
+        <f t="shared" ref="H294" si="103">CONCATENATE(F294,"","【",E294,"】[",G294,"]:",C294,"。(修改文件:",D294,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:杯赛说明增加小组赛算分文字。(修改文件:LegendCupTipConfig.csv)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A295" s="6">
+        <v>43097</v>
+      </c>
+      <c r="B295" s="9">
+        <v>5</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H295" s="8" t="str">
+        <f t="shared" ref="H295" si="104">CONCATENATE(F295,"","【",E295,"】[",G295,"]:",C295,"。(修改文件:",D295,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:上传3v3创建房间新的地图图片。(修改文件:StaticState_102.png)</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A296" s="6">
+        <v>43097</v>
+      </c>
+      <c r="B296" s="9">
+        <v>6</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H296" s="8" t="str">
+        <f t="shared" ref="H296" si="105">CONCATENATE(F296,"","【",E296,"】[",G296,"]:",C296,"。(修改文件:",D296,")")</f>
+        <v>董哲宇【全版本】[内部知晓]:后台踢人显示。(修改文件:SystemMessage.csv)</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272 G274:G281 G283:G289 G291:G293">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC25 WVO2:WVO25 WLS2:WLS25 WBW2:WBW25 VSA2:VSA25 VIE2:VIE25 UYI2:UYI25 UOM2:UOM25 UEQ2:UEQ25 TUU2:TUU25 TKY2:TKY25 TBC2:TBC25 SRG2:SRG25 SHK2:SHK25 RXO2:RXO25 RNS2:RNS25 RDW2:RDW25 QUA2:QUA25 QKE2:QKE25 QAI2:QAI25 PQM2:PQM25 PGQ2:PGQ25 OWU2:OWU25 OMY2:OMY25 ODC2:ODC25 NTG2:NTG25 NJK2:NJK25 MZO2:MZO25 MPS2:MPS25 MFW2:MFW25 LWA2:LWA25 LME2:LME25 LCI2:LCI25 KSM2:KSM25 KIQ2:KIQ25 JYU2:JYU25 JOY2:JOY25 JFC2:JFC25 IVG2:IVG25 ILK2:ILK25 IBO2:IBO25 HRS2:HRS25 HHW2:HHW25 GYA2:GYA25 GOE2:GOE25 GEI2:GEI25 FUM2:FUM25 FKQ2:FKQ25 FAU2:FAU25 EQY2:EQY25 EHC2:EHC25 DXG2:DXG25 DNK2:DNK25 DDO2:DDO25 CTS2:CTS25 CJW2:CJW25 CAA2:CAA25 BQE2:BQE25 BGI2:BGI25 AWM2:AWM25 AMQ2:AMQ25 ACU2:ACU25 SY2:SY25 G2:G57 G59:G60 G62 G64 G66:G67 G69:G70 G72 G74 G76 G78 G80:G81 G83:G85 G87 G89:G91 G93:G94 G96:G99 G101:G102 G104:G105 G107 G109:G110 G112 G114:G117 G119:G121 G123 G125 G127 G129 G133 G131 G135 G137:G138 G140 G142:G144 G146:G147 G149:G150 G152:G154 G156:G157 G159:G161 G163:G165 G167:G171 G173:G174 G176:G180 G182:G183 G185:G188 G190:G192 G194:G195 G197 G199 G201 G203 G206:G207 G209:G210 G212 G214 G216 G218 G220:G221 G223:G226 G234 G228:G229 G231:G232 G236 G238 G242 G240 G244 G246:G247 G249 G257:G259 G255 G251 G253 G261:G264 G266 G268:G272 G274:G281 G283:G289 G291:G296">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272 E274:E281 E283:E289 E291:E293">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA25 WVM2:WVM25 WLQ2:WLQ25 WBU2:WBU25 VRY2:VRY25 VIC2:VIC25 UYG2:UYG25 UOK2:UOK25 UEO2:UEO25 TUS2:TUS25 TKW2:TKW25 TBA2:TBA25 SRE2:SRE25 SHI2:SHI25 RXM2:RXM25 RNQ2:RNQ25 RDU2:RDU25 QTY2:QTY25 QKC2:QKC25 QAG2:QAG25 PQK2:PQK25 PGO2:PGO25 OWS2:OWS25 OMW2:OMW25 ODA2:ODA25 NTE2:NTE25 NJI2:NJI25 MZM2:MZM25 MPQ2:MPQ25 MFU2:MFU25 LVY2:LVY25 LMC2:LMC25 LCG2:LCG25 KSK2:KSK25 KIO2:KIO25 JYS2:JYS25 JOW2:JOW25 JFA2:JFA25 IVE2:IVE25 ILI2:ILI25 IBM2:IBM25 HRQ2:HRQ25 HHU2:HHU25 GXY2:GXY25 GOC2:GOC25 GEG2:GEG25 FUK2:FUK25 FKO2:FKO25 FAS2:FAS25 EQW2:EQW25 EHA2:EHA25 DXE2:DXE25 DNI2:DNI25 DDM2:DDM25 CTQ2:CTQ25 CJU2:CJU25 BZY2:BZY25 BQC2:BQC25 BGG2:BGG25 AWK2:AWK25 AMO2:AMO25 ACS2:ACS25 SW2:SW25 E2:E57 E59:E60 E62 E64 E66:E67 E69:E70 E72 E74 E76 E78 E80:E81 E83:E85 E87 E89:E91 E93:E94 E96:E99 E101:E102 E104:E105 E107 E109:E110 E112 E114:E117 E119:E121 E123 E125 E127 E129 E133 E131 E135 E137:E138 E140 E142:E144 E146:E147 E149:E150 E152:E154 E156:E157 E159:E161 E163:E165 E167:E171 E173:E174 E176:E180 E182:E183 E185:E188 E190:E192 E194:E195 E197 E199 E201 E203 E206:E207 E209:E210 E212 E214 E216 E218 E220:E221 E223:E226 E234 E228:E229 E231:E232 E236 E238 E242 E240 E244 E246:E247 E249 E257:E259 E255 E251 E253 E261:E264 E266 E268:E272 E274:E281 E283:E289 E291:E296">
       <formula1>$O$2:$O$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">
